--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_004.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -196,15 +196,9 @@
     <t>ST_007 to ST_008</t>
   </si>
   <si>
-    <t>stop at ST_008</t>
-  </si>
-  <si>
     <t>ST_008 to ST_009</t>
   </si>
   <si>
-    <t>stop at ST_009</t>
-  </si>
-  <si>
     <t>ST_009 to ST_010</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>ST_014 to ST_015</t>
   </si>
   <si>
-    <t>stop at ST_015</t>
-  </si>
-  <si>
     <t>ST_015 to ST_016</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>ST_033 to ST_034</t>
   </si>
   <si>
-    <t>stop at ST_034</t>
-  </si>
-  <si>
     <t>ST_034 to ST_035</t>
   </si>
   <si>
@@ -394,9 +382,6 @@
     <t>Change Barge - B_089 - (ST_014 to ST_014)</t>
   </si>
   <si>
-    <t>stop at ST_026</t>
-  </si>
-  <si>
     <t>ld1 - B_089</t>
   </si>
   <si>
@@ -409,9 +394,6 @@
     <t>loading_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>release_point</t>
   </si>
   <si>
@@ -448,10 +430,10 @@
     <t>B_049,B_081,B_096</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A26462D0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2A7A6C0&gt;], 'exit_datetime': datetime.datetime(2025, 1, 23, 13, 30)}</t>
-  </si>
-  <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A26462D0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A28EBBC0&gt;], 'exit_datetime': datetime.datetime(2025, 1, 23, 13, 30)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B7452E4C50&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B742DB2570&gt;], 'exit_datetime': datetime.datetime(2025, 1, 23, 13, 30)}</t>
+  </si>
+  <si>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B7452E4C50&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B741BAE780&gt;], 'exit_datetime': datetime.datetime(2025, 1, 23, 13, 30)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -957,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X137"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1096,13 +1078,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1137,13 +1119,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N3">
         <v>1200</v>
@@ -1164,19 +1146,19 @@
         <v>45680.5625</v>
       </c>
       <c r="T3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1211,13 +1193,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1238,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1282,13 +1264,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>129</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>135</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1309,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1353,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1380,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1424,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1451,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W7" t="s">
         <v>26</v>
       </c>
       <c r="X7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1495,13 +1477,13 @@
         <v>9.20655737704918</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1522,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1566,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>8400</v>
@@ -1593,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1637,13 +1619,13 @@
         <v>270</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>3150</v>
@@ -1664,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1708,13 +1690,13 @@
         <v>270</v>
       </c>
       <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
         <v>130</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>136</v>
       </c>
       <c r="N11">
         <v>3150</v>
@@ -1735,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1779,13 +1761,13 @@
         <v>270</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N12">
         <v>2100</v>
@@ -1806,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1850,13 +1832,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>8400</v>
@@ -1877,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1921,13 +1903,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>8400</v>
@@ -1948,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1992,13 +1974,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>8400</v>
@@ -2019,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="V15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2063,13 +2045,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N16">
         <v>8400</v>
@@ -2090,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="V16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W16" t="s">
         <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2134,13 +2116,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N17">
         <v>8400</v>
@@ -2161,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="V17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
       <c r="X17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2190,28 +2172,28 @@
         <v>45682.02720140325</v>
       </c>
       <c r="F18" s="2">
-        <v>45682.02720140325</v>
+        <v>45682.0336588897</v>
       </c>
       <c r="G18">
         <v>15.15497967472222</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.154979674796748</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.452459016393442</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>8400</v>
@@ -2232,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="V18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2255,34 +2237,34 @@
         <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>45682.02720140325</v>
+        <v>45682.0336588897</v>
       </c>
       <c r="E19" s="2">
-        <v>45682.02720140325</v>
+        <v>45682.10115550216</v>
       </c>
       <c r="F19" s="2">
-        <v>45682.0336588897</v>
+        <v>45682.12698544796</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.619918699166667</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>0.154979674796748</v>
+        <v>0.6199186991869919</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.452459016393442</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N19">
         <v>8400</v>
@@ -2303,16 +2285,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="V19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W19" t="s">
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2326,34 +2308,34 @@
         <v>62</v>
       </c>
       <c r="D20" s="2">
-        <v>45682.0336588897</v>
+        <v>45682.12698544796</v>
       </c>
       <c r="E20" s="2">
-        <v>45682.10115550216</v>
+        <v>45682.12698544796</v>
       </c>
       <c r="F20" s="2">
-        <v>45682.10115550216</v>
+        <v>45682.13344293441</v>
       </c>
       <c r="G20">
-        <v>1.619918699166667</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.154979674796748</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.452459016393442</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N20">
         <v>8400</v>
@@ -2374,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="V20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2397,34 +2379,34 @@
         <v>63</v>
       </c>
       <c r="D21" s="2">
-        <v>45682.10115550216</v>
+        <v>45682.13344293441</v>
       </c>
       <c r="E21" s="2">
-        <v>45682.10115550216</v>
+        <v>45682.13344293441</v>
       </c>
       <c r="F21" s="2">
-        <v>45682.12698544796</v>
+        <v>45682.13990042086</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0.6199186991869919</v>
+        <v>0.154979674796748</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.452459016393442</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N21">
         <v>8400</v>
@@ -2445,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2468,13 +2450,13 @@
         <v>64</v>
       </c>
       <c r="D22" s="2">
-        <v>45682.12698544796</v>
+        <v>45682.13990042086</v>
       </c>
       <c r="E22" s="2">
-        <v>45682.12698544796</v>
+        <v>45682.13990042086</v>
       </c>
       <c r="F22" s="2">
-        <v>45682.13344293441</v>
+        <v>45682.1463579073</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2489,13 +2471,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N22">
         <v>8400</v>
@@ -2516,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2539,13 +2521,13 @@
         <v>65</v>
       </c>
       <c r="D23" s="2">
-        <v>45682.13344293441</v>
+        <v>45682.1463579073</v>
       </c>
       <c r="E23" s="2">
-        <v>45682.13344293441</v>
+        <v>45682.1463579073</v>
       </c>
       <c r="F23" s="2">
-        <v>45682.13990042086</v>
+        <v>45682.15281539375</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2560,13 +2542,13 @@
         <v>6.452459016393442</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N23">
         <v>8400</v>
@@ -2587,60 +2569,57 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="2">
-        <v>45682.13990042086</v>
+        <v>45682.15281539375</v>
       </c>
       <c r="E24" s="2">
-        <v>45682.13990042086</v>
+        <v>45682.15281539375</v>
       </c>
       <c r="F24" s="2">
-        <v>45682.1463579073</v>
+        <v>45682.21531539375</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.154979674796748</v>
+        <v>90</v>
       </c>
       <c r="J24">
-        <v>6.452459016393442</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>133</v>
-      </c>
       <c r="N24">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2658,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="V24" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2675,43 +2654,43 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>45682.1463579073</v>
+        <v>45682.15281539375</v>
       </c>
       <c r="E25" s="2">
-        <v>45682.1463579073</v>
+        <v>45682.15281539375</v>
       </c>
       <c r="F25" s="2">
-        <v>45682.15281539375</v>
+        <v>45682.17364872708</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.154979674796748</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>6.452459016393442</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N25">
-        <v>8400</v>
+        <v>5250</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2729,36 +2708,36 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="V25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>45682.15281539375</v>
+        <v>45682.17364872708</v>
       </c>
       <c r="E26" s="2">
-        <v>45682.15281539375</v>
+        <v>45682.17364872708</v>
       </c>
       <c r="F26" s="2">
-        <v>45682.21531539375</v>
+        <v>45682.19448206042</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2767,19 +2746,22 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>90</v>
+        <v>0.5</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26" t="s">
+        <v>130</v>
+      </c>
       <c r="N26">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2800,13 +2782,13 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2820,13 +2802,13 @@
         <v>69</v>
       </c>
       <c r="D27" s="2">
-        <v>45682.15281539375</v>
+        <v>45682.19448206042</v>
       </c>
       <c r="E27" s="2">
-        <v>45682.15281539375</v>
+        <v>45682.19448206042</v>
       </c>
       <c r="F27" s="2">
-        <v>45682.17364872708</v>
+        <v>45682.21531539375</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2841,16 +2823,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
-        <v>138</v>
-      </c>
       <c r="N27">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2871,33 +2850,33 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
-        <v>45682.17364872708</v>
+        <v>45679.875</v>
       </c>
       <c r="E28" s="2">
-        <v>45682.17364872708</v>
+        <v>45679.875</v>
       </c>
       <c r="F28" s="2">
-        <v>45682.19448206042</v>
+        <v>45679.875</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2906,22 +2885,19 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>136</v>
-      </c>
       <c r="N28">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2942,54 +2918,57 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
-        <v>45682.19448206042</v>
+        <v>45679.875</v>
       </c>
       <c r="E29" s="2">
-        <v>45682.19448206042</v>
+        <v>45679.875</v>
       </c>
       <c r="F29" s="2">
-        <v>45682.21531539375</v>
+        <v>45680.5625</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="M29" t="s">
+        <v>133</v>
+      </c>
       <c r="N29">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3003,61 +2982,67 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29">
-        <v>0</v>
+      <c r="S29" s="2">
+        <v>45680.5625</v>
+      </c>
+      <c r="T29" t="s">
+        <v>139</v>
       </c>
       <c r="U29" t="s">
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2">
         <v>45679.875</v>
       </c>
       <c r="E30" s="2">
-        <v>45679.875</v>
+        <v>45679.88888888889</v>
       </c>
       <c r="F30" s="2">
-        <v>45679.875</v>
+        <v>45680.10763888889</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
+      <c r="M30" t="s">
+        <v>134</v>
+      </c>
       <c r="N30">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3075,16 +3060,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="V30" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3092,40 +3077,40 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2">
-        <v>45679.875</v>
+        <v>45680.10763888889</v>
       </c>
       <c r="E31" s="2">
-        <v>45679.875</v>
+        <v>45680.12152777778</v>
       </c>
       <c r="F31" s="2">
-        <v>45680.5625</v>
+        <v>45680.12152777778</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N31">
         <v>800</v>
@@ -3142,117 +3127,114 @@
       <c r="R31">
         <v>0</v>
       </c>
-      <c r="S31" s="2">
-        <v>45680.5625</v>
-      </c>
-      <c r="T31" t="s">
-        <v>145</v>
+      <c r="S31">
+        <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="V31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2">
-        <v>45679.875</v>
+        <v>45680.5625</v>
       </c>
       <c r="E32" s="2">
-        <v>45679.88888888889</v>
+        <v>45680.5625</v>
       </c>
       <c r="F32" s="2">
-        <v>45680.10763888889</v>
+        <v>45680.5625</v>
       </c>
       <c r="G32">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
+        <v>133</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="s">
         <v>140</v>
       </c>
-      <c r="N32">
-        <v>400</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>146</v>
-      </c>
       <c r="V32" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
-        <v>45680.10763888889</v>
+        <v>45680.5625</v>
       </c>
       <c r="E33" s="2">
-        <v>45680.12152777778</v>
+        <v>45680.5625</v>
       </c>
       <c r="F33" s="2">
-        <v>45680.12152777778</v>
+        <v>45680.5625</v>
       </c>
       <c r="G33">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3261,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>10.47619047619048</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N33">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3291,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3308,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -3320,7 +3302,7 @@
         <v>45680.5625</v>
       </c>
       <c r="F34" s="2">
-        <v>45680.5625</v>
+        <v>45681</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3335,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4950</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -3362,27 +3344,27 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V34" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2">
         <v>45680.5625</v>
@@ -3391,7 +3373,7 @@
         <v>45680.5625</v>
       </c>
       <c r="F35" s="2">
-        <v>45680.5625</v>
+        <v>45680.9951923077</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3400,22 +3382,22 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>10.38461538461539</v>
       </c>
       <c r="J35">
-        <v>10.47619047619048</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3433,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V35" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3450,10 +3432,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2">
         <v>45680.5625</v>
@@ -3462,7 +3444,7 @@
         <v>45680.5625</v>
       </c>
       <c r="F36" s="2">
-        <v>45681</v>
+        <v>45680.953125</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3471,22 +3453,22 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N36">
-        <v>4950</v>
+        <v>2250</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3504,60 +3486,60 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2">
-        <v>45680.5625</v>
+        <v>45681</v>
       </c>
       <c r="E37" s="2">
-        <v>45680.5625</v>
+        <v>45681</v>
       </c>
       <c r="F37" s="2">
-        <v>45680.9951923077</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>62.21893992770459</v>
       </c>
       <c r="I37">
-        <v>10.38461538461539</v>
+        <v>6.691921836014322</v>
       </c>
       <c r="J37">
-        <v>260</v>
+        <v>9.297619047619047</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N37">
-        <v>2700</v>
+        <v>4950</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3575,128 +3557,128 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="V37" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2">
-        <v>45680.5625</v>
+        <v>45681</v>
       </c>
       <c r="E38" s="2">
-        <v>45680.5625</v>
+        <v>45681</v>
       </c>
       <c r="F38" s="2">
-        <v>45680.953125</v>
+        <v>45681.17127565909</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>38.21893992770459</v>
       </c>
       <c r="I38">
-        <v>9.375</v>
+        <v>4.110615818088585</v>
       </c>
       <c r="J38">
-        <v>240</v>
+        <v>9.297619047619047</v>
       </c>
       <c r="K38" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38">
+        <v>4950</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
         <v>140</v>
       </c>
-      <c r="N38">
-        <v>2250</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="U38" t="s">
-        <v>146</v>
-      </c>
       <c r="V38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2">
-        <v>45681</v>
+        <v>45681.17127565909</v>
       </c>
       <c r="E39" s="2">
-        <v>45681</v>
+        <v>45681.17127565909</v>
       </c>
       <c r="F39" s="2">
-        <v>45681.27883007652</v>
+        <v>45681.22057143374</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>62.21893992770459</v>
+        <v>11</v>
       </c>
       <c r="I39">
-        <v>6.691921836014322</v>
+        <v>1.183098591549296</v>
       </c>
       <c r="J39">
         <v>9.297619047619047</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N39">
         <v>4950</v>
@@ -3717,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="V39" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3737,37 +3719,37 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2">
-        <v>45681</v>
+        <v>45681.22057143374</v>
       </c>
       <c r="E40" s="2">
-        <v>45681</v>
+        <v>45681.22057143374</v>
       </c>
       <c r="F40" s="2">
-        <v>45681.17127565909</v>
+        <v>45681.22953430185</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>38.21893992770459</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>4.110615818088585</v>
+        <v>0.2151088348271447</v>
       </c>
       <c r="J40">
         <v>9.297619047619047</v>
       </c>
       <c r="K40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N40">
         <v>4950</v>
@@ -3788,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3808,37 +3790,37 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D41" s="2">
-        <v>45681.17127565909</v>
+        <v>45681.22953430185</v>
       </c>
       <c r="E41" s="2">
-        <v>45681.17127565909</v>
+        <v>45681.22953430185</v>
       </c>
       <c r="F41" s="2">
-        <v>45681.22057143374</v>
+        <v>45681.23849716996</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>1.183098591549296</v>
+        <v>0.2151088348271447</v>
       </c>
       <c r="J41">
         <v>9.297619047619047</v>
       </c>
       <c r="K41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N41">
         <v>4950</v>
@@ -3859,16 +3841,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V41" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3879,37 +3861,37 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2">
-        <v>45681.22057143374</v>
+        <v>45681.23849716996</v>
       </c>
       <c r="E42" s="2">
-        <v>45681.22057143374</v>
+        <v>45681.23849716996</v>
       </c>
       <c r="F42" s="2">
-        <v>45681.22953430185</v>
+        <v>45681.24297860403</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.2151088348271447</v>
+        <v>0.1075544174135723</v>
       </c>
       <c r="J42">
         <v>9.297619047619047</v>
       </c>
       <c r="K42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N42">
         <v>4950</v>
@@ -3930,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3950,37 +3932,37 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2">
-        <v>45681.22953430185</v>
+        <v>45681.24297860403</v>
       </c>
       <c r="E43" s="2">
-        <v>45681.22953430185</v>
+        <v>45681.24297860403</v>
       </c>
       <c r="F43" s="2">
-        <v>45681.23849716996</v>
+        <v>45681.26090434026</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0.2151088348271447</v>
+        <v>0.4302176696542894</v>
       </c>
       <c r="J43">
         <v>9.297619047619047</v>
       </c>
       <c r="K43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N43">
         <v>4950</v>
@@ -4001,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4021,16 +4003,16 @@
         <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2">
-        <v>45681.23849716996</v>
+        <v>45681.26090434026</v>
       </c>
       <c r="E44" s="2">
-        <v>45681.23849716996</v>
+        <v>45681.26090434026</v>
       </c>
       <c r="F44" s="2">
-        <v>45681.24297860403</v>
+        <v>45681.26538577433</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4045,13 +4027,13 @@
         <v>9.297619047619047</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N44">
         <v>4950</v>
@@ -4072,16 +4054,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V44" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4095,34 +4077,34 @@
         <v>63</v>
       </c>
       <c r="D45" s="2">
-        <v>45681.24297860403</v>
+        <v>45681.26538577433</v>
       </c>
       <c r="E45" s="2">
-        <v>45681.24297860403</v>
+        <v>45681.26538577433</v>
       </c>
       <c r="F45" s="2">
-        <v>45681.26090434026</v>
+        <v>45681.26986720839</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0.4302176696542894</v>
+        <v>0.1075544174135723</v>
       </c>
       <c r="J45">
         <v>9.297619047619047</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N45">
         <v>4950</v>
@@ -4143,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="V45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4166,13 +4148,13 @@
         <v>64</v>
       </c>
       <c r="D46" s="2">
-        <v>45681.26090434026</v>
+        <v>45681.26986720839</v>
       </c>
       <c r="E46" s="2">
-        <v>45681.26090434026</v>
+        <v>45681.26986720839</v>
       </c>
       <c r="F46" s="2">
-        <v>45681.26538577433</v>
+        <v>45681.27434864245</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4187,13 +4169,13 @@
         <v>9.297619047619047</v>
       </c>
       <c r="K46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N46">
         <v>4950</v>
@@ -4214,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4237,13 +4219,13 @@
         <v>65</v>
       </c>
       <c r="D47" s="2">
-        <v>45681.26538577433</v>
+        <v>45681.27434864245</v>
       </c>
       <c r="E47" s="2">
-        <v>45681.26538577433</v>
+        <v>45681.27434864245</v>
       </c>
       <c r="F47" s="2">
-        <v>45681.26986720839</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4258,13 +4240,13 @@
         <v>9.297619047619047</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N47">
         <v>4950</v>
@@ -4285,60 +4267,57 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2">
-        <v>45681.26986720839</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="E48" s="2">
-        <v>45681.26986720839</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="F48" s="2">
-        <v>45681.27434864245</v>
+        <v>45681.32049674318</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.1075544174135723</v>
+        <v>60</v>
       </c>
       <c r="J48">
-        <v>9.297619047619047</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
-      <c r="M48" t="s">
-        <v>139</v>
-      </c>
       <c r="N48">
-        <v>4950</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4356,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="V48" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4373,43 +4352,43 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2">
-        <v>45681.27434864245</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="E49" s="2">
-        <v>45681.27434864245</v>
+        <v>45681.27883007652</v>
       </c>
       <c r="F49" s="2">
-        <v>45681.27883007652</v>
+        <v>45681.29966340985</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.1075544174135723</v>
+        <v>0.5</v>
       </c>
       <c r="J49">
-        <v>9.297619047619047</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N49">
-        <v>4950</v>
+        <v>2700</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4427,33 +4406,33 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="V49" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="2">
-        <v>45681.27883007652</v>
+        <v>45681.29966340985</v>
       </c>
       <c r="E50" s="2">
-        <v>45681.27883007652</v>
+        <v>45681.29966340985</v>
       </c>
       <c r="F50" s="2">
         <v>45681.32049674318</v>
@@ -4465,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4498,33 +4477,33 @@
         <v>28</v>
       </c>
       <c r="V50" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="2">
-        <v>45681.27883007652</v>
+        <v>45688.25</v>
       </c>
       <c r="E51" s="2">
-        <v>45681.27883007652</v>
+        <v>45688.25</v>
       </c>
       <c r="F51" s="2">
-        <v>45681.29966340985</v>
+        <v>45688.25</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4533,22 +4512,19 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
-      <c r="M51" t="s">
-        <v>141</v>
-      </c>
       <c r="N51">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -4569,33 +4545,33 @@
         <v>28</v>
       </c>
       <c r="V51" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="2">
-        <v>45681.29966340985</v>
+        <v>45688.25</v>
       </c>
       <c r="E52" s="2">
-        <v>45681.29966340985</v>
+        <v>45688.25</v>
       </c>
       <c r="F52" s="2">
-        <v>45681.32049674318</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4604,19 +4580,22 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
+      <c r="M52" t="s">
+        <v>136</v>
+      </c>
       <c r="N52">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4637,21 +4616,21 @@
         <v>28</v>
       </c>
       <c r="V52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
         <v>79</v>
@@ -4663,7 +4642,7 @@
         <v>45688.25</v>
       </c>
       <c r="F53" s="2">
-        <v>45688.25</v>
+        <v>45688.26388888889</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4678,13 +4657,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
+      <c r="M53" t="s">
+        <v>134</v>
+      </c>
       <c r="N53">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -4705,33 +4687,33 @@
         <v>28</v>
       </c>
       <c r="V53" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="2">
-        <v>45688.25</v>
+        <v>45688.26388888889</v>
       </c>
       <c r="E54" s="2">
-        <v>45688.25</v>
+        <v>45688.26388888889</v>
       </c>
       <c r="F54" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.27777777778</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4743,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N54">
-        <v>10200</v>
+        <v>4950</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -4776,13 +4758,13 @@
         <v>28</v>
       </c>
       <c r="V54" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W54" t="s">
         <v>26</v>
       </c>
       <c r="X54" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4796,13 +4778,13 @@
         <v>81</v>
       </c>
       <c r="D55" s="2">
-        <v>45688.25</v>
+        <v>45688.27777777778</v>
       </c>
       <c r="E55" s="2">
-        <v>45688.25</v>
+        <v>45688.27777777778</v>
       </c>
       <c r="F55" s="2">
-        <v>45688.26388888889</v>
+        <v>45688.29166666666</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4817,16 +4799,16 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N55">
-        <v>2250</v>
+        <v>8100</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4847,13 +4829,13 @@
         <v>28</v>
       </c>
       <c r="V55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W55" t="s">
         <v>26</v>
       </c>
       <c r="X55" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4867,13 +4849,13 @@
         <v>82</v>
       </c>
       <c r="D56" s="2">
-        <v>45688.26388888889</v>
+        <v>45688.29166666666</v>
       </c>
       <c r="E56" s="2">
-        <v>45688.26388888889</v>
+        <v>45688.29166666666</v>
       </c>
       <c r="F56" s="2">
-        <v>45688.27777777778</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4888,16 +4870,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N56">
-        <v>4950</v>
+        <v>10200</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4918,57 +4900,57 @@
         <v>28</v>
       </c>
       <c r="V56" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="2">
-        <v>45688.27777777778</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="E57" s="2">
-        <v>45688.27777777778</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="F57" s="2">
-        <v>45688.29166666666</v>
+        <v>45691.01099959446</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>24.32116788321168</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N57">
-        <v>8100</v>
+        <v>10200</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4989,54 +4971,54 @@
         <v>28</v>
       </c>
       <c r="V57" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="2">
-        <v>45688.29166666666</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="E58" s="2">
-        <v>45688.29166666666</v>
+        <v>45688.30555555555</v>
       </c>
       <c r="F58" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.34281224655</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.8941605839416058</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K58" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N58">
         <v>10200</v>
@@ -5060,54 +5042,54 @@
         <v>28</v>
       </c>
       <c r="V58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W58" t="s">
         <v>26</v>
       </c>
       <c r="X58" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
         <v>85</v>
       </c>
       <c r="D59" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.34281224655</v>
       </c>
       <c r="E59" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.77438158962</v>
       </c>
       <c r="F59" s="2">
-        <v>45691.01099959446</v>
+        <v>45688.78928426602</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>10.35766423361111</v>
       </c>
       <c r="H59">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>24.32116788321168</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J59">
         <v>5.591836734693878</v>
       </c>
       <c r="K59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N59">
         <v>10200</v>
@@ -5128,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="V59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W59" t="s">
         <v>26</v>
       </c>
       <c r="X59" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5151,34 +5133,34 @@
         <v>86</v>
       </c>
       <c r="D60" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.78928426602</v>
       </c>
       <c r="E60" s="2">
-        <v>45688.30555555555</v>
+        <v>45688.78928426602</v>
       </c>
       <c r="F60" s="2">
-        <v>45688.34281224655</v>
+        <v>45688.80418694242</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0.8941605839416058</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J60">
         <v>5.591836734693878</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N60">
         <v>10200</v>
@@ -5199,16 +5181,16 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="V60" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W60" t="s">
         <v>26</v>
       </c>
       <c r="X60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5222,34 +5204,34 @@
         <v>87</v>
       </c>
       <c r="D61" s="2">
-        <v>45688.34281224655</v>
+        <v>45688.80418694242</v>
       </c>
       <c r="E61" s="2">
-        <v>45688.77438158962</v>
+        <v>45688.80418694242</v>
       </c>
       <c r="F61" s="2">
-        <v>45688.77438158962</v>
+        <v>45688.81163828061</v>
       </c>
       <c r="G61">
-        <v>10.35766423361111</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N61">
         <v>10200</v>
@@ -5270,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5293,34 +5275,34 @@
         <v>88</v>
       </c>
       <c r="D62" s="2">
-        <v>45688.77438158962</v>
+        <v>45688.81163828061</v>
       </c>
       <c r="E62" s="2">
-        <v>45688.77438158962</v>
+        <v>45688.81163828061</v>
       </c>
       <c r="F62" s="2">
-        <v>45688.78928426602</v>
+        <v>45688.84144363341</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0.3576642335766423</v>
+        <v>0.7153284671532846</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K62" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N62">
         <v>10200</v>
@@ -5341,16 +5323,16 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V62" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5364,13 +5346,13 @@
         <v>89</v>
       </c>
       <c r="D63" s="2">
-        <v>45688.78928426602</v>
+        <v>45688.84144363341</v>
       </c>
       <c r="E63" s="2">
-        <v>45688.78928426602</v>
+        <v>45688.84144363341</v>
       </c>
       <c r="F63" s="2">
-        <v>45688.80418694242</v>
+        <v>45688.85634630982</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5385,13 +5367,13 @@
         <v>5.591836734693878</v>
       </c>
       <c r="K63" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N63">
         <v>10200</v>
@@ -5412,16 +5394,16 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V63" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -5435,34 +5417,34 @@
         <v>90</v>
       </c>
       <c r="D64" s="2">
-        <v>45688.80418694242</v>
+        <v>45688.85634630982</v>
       </c>
       <c r="E64" s="2">
-        <v>45688.80418694242</v>
+        <v>45688.85634630982</v>
       </c>
       <c r="F64" s="2">
-        <v>45688.81163828061</v>
+        <v>45688.87870032441</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0.1788321167883211</v>
+        <v>0.5364963503649635</v>
       </c>
       <c r="J64">
         <v>5.591836734693878</v>
       </c>
       <c r="K64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N64">
         <v>10200</v>
@@ -5483,16 +5465,16 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V64" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -5506,13 +5488,13 @@
         <v>91</v>
       </c>
       <c r="D65" s="2">
-        <v>45688.81163828061</v>
+        <v>45688.87870032441</v>
       </c>
       <c r="E65" s="2">
-        <v>45688.81163828061</v>
+        <v>45688.87870032441</v>
       </c>
       <c r="F65" s="2">
-        <v>45688.84144363341</v>
+        <v>45688.90850567721</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5527,13 +5509,13 @@
         <v>5.591836734693878</v>
       </c>
       <c r="K65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L65">
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N65">
         <v>10200</v>
@@ -5554,16 +5536,16 @@
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V65" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W65" t="s">
         <v>26</v>
       </c>
       <c r="X65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -5577,34 +5559,34 @@
         <v>92</v>
       </c>
       <c r="D66" s="2">
-        <v>45688.84144363341</v>
+        <v>45688.90850567721</v>
       </c>
       <c r="E66" s="2">
-        <v>45688.84144363341</v>
+        <v>45688.90850567721</v>
       </c>
       <c r="F66" s="2">
-        <v>45688.85634630982</v>
+        <v>45688.99047039741</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I66">
-        <v>0.3576642335766423</v>
+        <v>1.967153284671533</v>
       </c>
       <c r="J66">
         <v>5.591836734693878</v>
       </c>
       <c r="K66" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N66">
         <v>10200</v>
@@ -5625,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V66" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W66" t="s">
         <v>26</v>
       </c>
       <c r="X66" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5648,34 +5630,34 @@
         <v>93</v>
       </c>
       <c r="D67" s="2">
-        <v>45688.85634630982</v>
+        <v>45688.99047039741</v>
       </c>
       <c r="E67" s="2">
-        <v>45688.85634630982</v>
+        <v>45688.99047039741</v>
       </c>
       <c r="F67" s="2">
-        <v>45688.87870032441</v>
+        <v>45688.9979217356</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.5364963503649635</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J67">
         <v>5.591836734693878</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L67">
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N67">
         <v>10200</v>
@@ -5696,16 +5678,16 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V67" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W67" t="s">
         <v>26</v>
       </c>
       <c r="X67" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -5719,34 +5701,34 @@
         <v>94</v>
       </c>
       <c r="D68" s="2">
-        <v>45688.87870032441</v>
+        <v>45688.9979217356</v>
       </c>
       <c r="E68" s="2">
-        <v>45688.87870032441</v>
+        <v>45688.9979217356</v>
       </c>
       <c r="F68" s="2">
-        <v>45688.90850567721</v>
+        <v>45689.15439983779</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I68">
-        <v>0.7153284671532846</v>
+        <v>3.755474452554744</v>
       </c>
       <c r="J68">
         <v>5.591836734693878</v>
       </c>
       <c r="K68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L68">
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N68">
         <v>10200</v>
@@ -5767,16 +5749,16 @@
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="V68" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W68" t="s">
         <v>26</v>
       </c>
       <c r="X68" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -5790,34 +5772,34 @@
         <v>95</v>
       </c>
       <c r="D69" s="2">
-        <v>45688.90850567721</v>
+        <v>45689.15439983779</v>
       </c>
       <c r="E69" s="2">
-        <v>45688.90850567721</v>
+        <v>45689.15439983779</v>
       </c>
       <c r="F69" s="2">
-        <v>45688.99047039741</v>
+        <v>45689.16930251419</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1.967153284671533</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J69">
         <v>5.591836734693878</v>
       </c>
       <c r="K69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L69">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N69">
         <v>10200</v>
@@ -5838,16 +5820,16 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V69" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W69" t="s">
         <v>26</v>
       </c>
       <c r="X69" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -5861,34 +5843,34 @@
         <v>96</v>
       </c>
       <c r="D70" s="2">
-        <v>45688.99047039741</v>
+        <v>45689.16930251419</v>
       </c>
       <c r="E70" s="2">
-        <v>45688.99047039741</v>
+        <v>45689.16930251419</v>
       </c>
       <c r="F70" s="2">
-        <v>45688.9979217356</v>
+        <v>45689.21401054339</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I70">
-        <v>0.1788321167883211</v>
+        <v>1.072992700729927</v>
       </c>
       <c r="J70">
         <v>5.591836734693878</v>
       </c>
       <c r="K70" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N70">
         <v>10200</v>
@@ -5909,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="V70" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W70" t="s">
         <v>26</v>
       </c>
       <c r="X70" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -5932,34 +5914,34 @@
         <v>97</v>
       </c>
       <c r="D71" s="2">
-        <v>45688.9979217356</v>
+        <v>45689.21401054339</v>
       </c>
       <c r="E71" s="2">
-        <v>45688.9979217356</v>
+        <v>45689.21401054339</v>
       </c>
       <c r="F71" s="2">
-        <v>45689.15439983779</v>
+        <v>45689.29597526359</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I71">
-        <v>3.755474452554744</v>
+        <v>1.967153284671533</v>
       </c>
       <c r="J71">
         <v>5.591836734693878</v>
       </c>
       <c r="K71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N71">
         <v>10200</v>
@@ -5980,16 +5962,16 @@
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="V71" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W71" t="s">
         <v>26</v>
       </c>
       <c r="X71" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -6003,34 +5985,34 @@
         <v>98</v>
       </c>
       <c r="D72" s="2">
-        <v>45689.15439983779</v>
+        <v>45689.29597526359</v>
       </c>
       <c r="E72" s="2">
-        <v>45689.15439983779</v>
+        <v>45689.29597526359</v>
       </c>
       <c r="F72" s="2">
-        <v>45689.16930251419</v>
+        <v>45689.31832927818</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>0.3576642335766423</v>
+        <v>0.5364963503649635</v>
       </c>
       <c r="J72">
         <v>5.591836734693878</v>
       </c>
       <c r="K72" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N72">
         <v>10200</v>
@@ -6051,16 +6033,16 @@
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="V72" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W72" t="s">
         <v>26</v>
       </c>
       <c r="X72" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -6074,34 +6056,34 @@
         <v>99</v>
       </c>
       <c r="D73" s="2">
-        <v>45689.16930251419</v>
+        <v>45689.31832927818</v>
       </c>
       <c r="E73" s="2">
-        <v>45689.16930251419</v>
+        <v>45689.31832927818</v>
       </c>
       <c r="F73" s="2">
-        <v>45689.21401054339</v>
+        <v>45689.34068329278</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>1.072992700729927</v>
+        <v>0.5364963503649635</v>
       </c>
       <c r="J73">
         <v>5.591836734693878</v>
       </c>
       <c r="K73" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N73">
         <v>10200</v>
@@ -6122,16 +6104,16 @@
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V73" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W73" t="s">
         <v>26</v>
       </c>
       <c r="X73" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6145,34 +6127,34 @@
         <v>100</v>
       </c>
       <c r="D74" s="2">
-        <v>45689.21401054339</v>
+        <v>45689.34068329278</v>
       </c>
       <c r="E74" s="2">
-        <v>45689.21401054339</v>
+        <v>45689.34068329278</v>
       </c>
       <c r="F74" s="2">
-        <v>45689.29597526359</v>
+        <v>45689.44500202757</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I74">
-        <v>1.967153284671533</v>
+        <v>2.503649635036496</v>
       </c>
       <c r="J74">
         <v>5.591836734693878</v>
       </c>
       <c r="K74" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N74">
         <v>10200</v>
@@ -6193,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V74" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W74" t="s">
         <v>26</v>
       </c>
       <c r="X74" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -6216,34 +6198,34 @@
         <v>101</v>
       </c>
       <c r="D75" s="2">
-        <v>45689.29597526359</v>
+        <v>45689.44500202757</v>
       </c>
       <c r="E75" s="2">
-        <v>45689.29597526359</v>
+        <v>45689.44500202757</v>
       </c>
       <c r="F75" s="2">
-        <v>45689.31832927818</v>
+        <v>45689.45990470397</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0.5364963503649635</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J75">
         <v>5.591836734693878</v>
       </c>
       <c r="K75" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N75">
         <v>10200</v>
@@ -6264,16 +6246,16 @@
         <v>0</v>
       </c>
       <c r="U75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V75" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W75" t="s">
         <v>26</v>
       </c>
       <c r="X75" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6287,34 +6269,34 @@
         <v>102</v>
       </c>
       <c r="D76" s="2">
-        <v>45689.31832927818</v>
+        <v>45689.45990470397</v>
       </c>
       <c r="E76" s="2">
-        <v>45689.31832927818</v>
+        <v>45689.45990470397</v>
       </c>
       <c r="F76" s="2">
-        <v>45689.34068329278</v>
+        <v>45689.47480738037</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>0.5364963503649635</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J76">
         <v>5.591836734693878</v>
       </c>
       <c r="K76" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N76">
         <v>10200</v>
@@ -6335,16 +6317,16 @@
         <v>0</v>
       </c>
       <c r="U76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V76" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W76" t="s">
         <v>26</v>
       </c>
       <c r="X76" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -6358,34 +6340,34 @@
         <v>103</v>
       </c>
       <c r="D77" s="2">
-        <v>45689.34068329278</v>
+        <v>45689.47480738037</v>
       </c>
       <c r="E77" s="2">
-        <v>45689.34068329278</v>
+        <v>45689.47480738037</v>
       </c>
       <c r="F77" s="2">
-        <v>45689.44500202757</v>
+        <v>45689.48971005677</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>2.503649635036496</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J77">
         <v>5.591836734693878</v>
       </c>
       <c r="K77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N77">
         <v>10200</v>
@@ -6406,16 +6388,16 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="V77" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W77" t="s">
         <v>26</v>
       </c>
       <c r="X77" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -6429,34 +6411,34 @@
         <v>104</v>
       </c>
       <c r="D78" s="2">
-        <v>45689.44500202757</v>
+        <v>45689.48971005677</v>
       </c>
       <c r="E78" s="2">
-        <v>45689.44500202757</v>
+        <v>45690.04186942417</v>
       </c>
       <c r="F78" s="2">
-        <v>45689.45990470397</v>
+        <v>45690.09402879157</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>13.2518248175</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I78">
-        <v>0.3576642335766423</v>
+        <v>1.251824817518248</v>
       </c>
       <c r="J78">
         <v>5.591836734693878</v>
       </c>
       <c r="K78" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N78">
         <v>10200</v>
@@ -6477,16 +6459,16 @@
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V78" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W78" t="s">
         <v>26</v>
       </c>
       <c r="X78" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -6500,34 +6482,34 @@
         <v>105</v>
       </c>
       <c r="D79" s="2">
-        <v>45689.45990470397</v>
+        <v>45690.09402879157</v>
       </c>
       <c r="E79" s="2">
-        <v>45689.45990470397</v>
+        <v>45690.09402879157</v>
       </c>
       <c r="F79" s="2">
-        <v>45689.47480738037</v>
+        <v>45690.16854217355</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>0.3576642335766423</v>
+        <v>1.788321167883212</v>
       </c>
       <c r="J79">
         <v>5.591836734693878</v>
       </c>
       <c r="K79" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N79">
         <v>10200</v>
@@ -6548,16 +6530,16 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V79" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W79" t="s">
         <v>26</v>
       </c>
       <c r="X79" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -6571,13 +6553,13 @@
         <v>106</v>
       </c>
       <c r="D80" s="2">
-        <v>45689.47480738037</v>
+        <v>45690.16854217355</v>
       </c>
       <c r="E80" s="2">
-        <v>45689.47480738037</v>
+        <v>45690.16854217355</v>
       </c>
       <c r="F80" s="2">
-        <v>45689.48971005677</v>
+        <v>45690.18344484995</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6592,13 +6574,13 @@
         <v>5.591836734693878</v>
       </c>
       <c r="K80" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L80">
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N80">
         <v>10200</v>
@@ -6619,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="V80" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W80" t="s">
         <v>26</v>
       </c>
       <c r="X80" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -6642,34 +6624,34 @@
         <v>107</v>
       </c>
       <c r="D81" s="2">
-        <v>45689.48971005677</v>
+        <v>45690.18344484995</v>
       </c>
       <c r="E81" s="2">
-        <v>45690.04186942417</v>
+        <v>45690.18344484995</v>
       </c>
       <c r="F81" s="2">
-        <v>45690.04186942417</v>
+        <v>45690.20579886455</v>
       </c>
       <c r="G81">
-        <v>13.2518248175</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.5364963503649635</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K81" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N81">
         <v>10200</v>
@@ -6690,16 +6672,16 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V81" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W81" t="s">
         <v>26</v>
       </c>
       <c r="X81" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -6713,34 +6695,34 @@
         <v>108</v>
       </c>
       <c r="D82" s="2">
-        <v>45690.04186942417</v>
+        <v>45690.20579886455</v>
       </c>
       <c r="E82" s="2">
-        <v>45690.04186942417</v>
+        <v>45690.20579886455</v>
       </c>
       <c r="F82" s="2">
-        <v>45690.09402879157</v>
+        <v>45690.22070154095</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1.251824817518248</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>5.591836734693878</v>
       </c>
       <c r="K82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N82">
         <v>10200</v>
@@ -6761,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V82" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W82" t="s">
         <v>26</v>
       </c>
       <c r="X82" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -6784,34 +6766,34 @@
         <v>109</v>
       </c>
       <c r="D83" s="2">
-        <v>45690.09402879157</v>
+        <v>45690.22070154095</v>
       </c>
       <c r="E83" s="2">
-        <v>45690.09402879157</v>
+        <v>45690.22070154095</v>
       </c>
       <c r="F83" s="2">
-        <v>45690.16854217355</v>
+        <v>45690.22815287914</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1.788321167883212</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J83">
         <v>5.591836734693878</v>
       </c>
       <c r="K83" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N83">
         <v>10200</v>
@@ -6832,16 +6814,16 @@
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V83" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W83" t="s">
         <v>26</v>
       </c>
       <c r="X83" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -6855,34 +6837,34 @@
         <v>110</v>
       </c>
       <c r="D84" s="2">
-        <v>45690.16854217355</v>
+        <v>45690.22815287914</v>
       </c>
       <c r="E84" s="2">
-        <v>45690.16854217355</v>
+        <v>45690.22815287914</v>
       </c>
       <c r="F84" s="2">
-        <v>45690.18344484995</v>
+        <v>45690.23560421734</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0.3576642335766423</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J84">
         <v>5.591836734693878</v>
       </c>
       <c r="K84" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N84">
         <v>10200</v>
@@ -6903,16 +6885,16 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V84" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W84" t="s">
         <v>26</v>
       </c>
       <c r="X84" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -6926,34 +6908,34 @@
         <v>111</v>
       </c>
       <c r="D85" s="2">
-        <v>45690.18344484995</v>
+        <v>45690.23560421734</v>
       </c>
       <c r="E85" s="2">
-        <v>45690.18344484995</v>
+        <v>45690.23560421734</v>
       </c>
       <c r="F85" s="2">
-        <v>45690.20579886455</v>
+        <v>45690.25050689374</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0.5364963503649635</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J85">
         <v>5.591836734693878</v>
       </c>
       <c r="K85" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L85">
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N85">
         <v>10200</v>
@@ -6974,16 +6956,16 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V85" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W85" t="s">
         <v>26</v>
       </c>
       <c r="X85" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -6997,34 +6979,34 @@
         <v>112</v>
       </c>
       <c r="D86" s="2">
-        <v>45690.20579886455</v>
+        <v>45690.25050689374</v>
       </c>
       <c r="E86" s="2">
-        <v>45690.20579886455</v>
+        <v>45690.25050689374</v>
       </c>
       <c r="F86" s="2">
-        <v>45690.22070154095</v>
+        <v>45690.25795823193</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0.3576642335766423</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J86">
         <v>5.591836734693878</v>
       </c>
       <c r="K86" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N86">
         <v>10200</v>
@@ -7045,16 +7027,16 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V86" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W86" t="s">
         <v>26</v>
       </c>
       <c r="X86" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -7068,34 +7050,34 @@
         <v>113</v>
       </c>
       <c r="D87" s="2">
-        <v>45690.22070154095</v>
+        <v>45690.25795823193</v>
       </c>
       <c r="E87" s="2">
-        <v>45690.22070154095</v>
+        <v>45690.25795823193</v>
       </c>
       <c r="F87" s="2">
-        <v>45690.22815287914</v>
+        <v>45690.27286090834</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0.1788321167883211</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J87">
         <v>5.591836734693878</v>
       </c>
       <c r="K87" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L87">
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N87">
         <v>10200</v>
@@ -7116,16 +7098,16 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V87" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W87" t="s">
         <v>26</v>
       </c>
       <c r="X87" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -7139,13 +7121,13 @@
         <v>114</v>
       </c>
       <c r="D88" s="2">
-        <v>45690.22815287914</v>
+        <v>45690.27286090834</v>
       </c>
       <c r="E88" s="2">
-        <v>45690.22815287914</v>
+        <v>45690.27286090834</v>
       </c>
       <c r="F88" s="2">
-        <v>45690.23560421734</v>
+        <v>45690.28031224653</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7160,13 +7142,13 @@
         <v>5.591836734693878</v>
       </c>
       <c r="K88" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L88">
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N88">
         <v>10200</v>
@@ -7187,16 +7169,16 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V88" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W88" t="s">
         <v>26</v>
       </c>
       <c r="X88" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -7210,34 +7192,34 @@
         <v>115</v>
       </c>
       <c r="D89" s="2">
-        <v>45690.23560421734</v>
+        <v>45690.28031224653</v>
       </c>
       <c r="E89" s="2">
-        <v>45690.23560421734</v>
+        <v>45690.28031224653</v>
       </c>
       <c r="F89" s="2">
-        <v>45690.25050689374</v>
+        <v>45690.28776358473</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0.3576642335766423</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="J89">
         <v>5.591836734693878</v>
       </c>
       <c r="K89" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L89">
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N89">
         <v>10200</v>
@@ -7258,16 +7240,16 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="V89" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W89" t="s">
         <v>26</v>
       </c>
       <c r="X89" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -7281,34 +7263,34 @@
         <v>116</v>
       </c>
       <c r="D90" s="2">
-        <v>45690.25050689374</v>
+        <v>45690.28776358473</v>
       </c>
       <c r="E90" s="2">
-        <v>45690.25050689374</v>
+        <v>45690.28776358473</v>
       </c>
       <c r="F90" s="2">
-        <v>45690.25795823193</v>
+        <v>45690.30266626112</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>0.1788321167883211</v>
+        <v>0.3576642335766423</v>
       </c>
       <c r="J90">
         <v>5.591836734693878</v>
       </c>
       <c r="K90" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N90">
         <v>10200</v>
@@ -7329,60 +7311,60 @@
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V90" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W90" t="s">
         <v>26</v>
       </c>
       <c r="X90" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
         <v>117</v>
       </c>
       <c r="D91" s="2">
-        <v>45690.25795823193</v>
+        <v>45690.30266626112</v>
       </c>
       <c r="E91" s="2">
-        <v>45690.25795823193</v>
+        <v>45690.30266626112</v>
       </c>
       <c r="F91" s="2">
-        <v>45690.27286090834</v>
+        <v>45690.52141626112</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0.3576642335766423</v>
+        <v>5.25</v>
       </c>
       <c r="J91">
-        <v>5.591836734693878</v>
+        <v>600</v>
       </c>
       <c r="K91" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L91">
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="N91">
-        <v>10200</v>
+        <v>3150</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -7400,60 +7382,60 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
+        <v>29</v>
+      </c>
+      <c r="V91" t="s">
         <v>184</v>
       </c>
-      <c r="V91" t="s">
-        <v>190</v>
-      </c>
       <c r="W91" t="s">
         <v>26</v>
       </c>
       <c r="X91" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="2">
-        <v>45690.27286090834</v>
+        <v>45690.52141626112</v>
       </c>
       <c r="E92" s="2">
-        <v>45690.27286090834</v>
+        <v>45690.52141626112</v>
       </c>
       <c r="F92" s="2">
-        <v>45690.28031224653</v>
+        <v>45690.70891626112</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.1788321167883211</v>
+        <v>4.5</v>
       </c>
       <c r="J92">
-        <v>5.591836734693878</v>
+        <v>600</v>
       </c>
       <c r="K92" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L92">
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N92">
-        <v>10200</v>
+        <v>2700</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -7471,60 +7453,60 @@
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="V92" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W92" t="s">
         <v>26</v>
       </c>
       <c r="X92" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="2">
-        <v>45690.28031224653</v>
+        <v>45690.70891626112</v>
       </c>
       <c r="E93" s="2">
-        <v>45690.28031224653</v>
+        <v>45690.70891626112</v>
       </c>
       <c r="F93" s="2">
-        <v>45690.28776358473</v>
+        <v>45690.86516626112</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0.1788321167883211</v>
+        <v>3.75</v>
       </c>
       <c r="J93">
-        <v>5.591836734693878</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N93">
-        <v>10200</v>
+        <v>2250</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -7542,60 +7524,60 @@
         <v>0</v>
       </c>
       <c r="U93" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="V93" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="W93" t="s">
         <v>26</v>
       </c>
       <c r="X93" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="2">
-        <v>45690.28776358473</v>
+        <v>45690.86516626112</v>
       </c>
       <c r="E94" s="2">
-        <v>45690.28776358473</v>
+        <v>45690.86516626112</v>
       </c>
       <c r="F94" s="2">
-        <v>45690.30266626112</v>
+        <v>45691.01099959446</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0.3576642335766423</v>
+        <v>3.5</v>
       </c>
       <c r="J94">
-        <v>5.591836734693878</v>
+        <v>600</v>
       </c>
       <c r="K94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L94">
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N94">
-        <v>10200</v>
+        <v>2100</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -7613,36 +7595,36 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
+        <v>29</v>
+      </c>
+      <c r="V94" t="s">
+        <v>184</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94" t="s">
         <v>187</v>
-      </c>
-      <c r="V94" t="s">
-        <v>190</v>
-      </c>
-      <c r="W94" t="s">
-        <v>26</v>
-      </c>
-      <c r="X94" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D95" s="2">
-        <v>45690.30266626112</v>
+        <v>45687.25</v>
       </c>
       <c r="E95" s="2">
-        <v>45690.30266626112</v>
+        <v>45687.25</v>
       </c>
       <c r="F95" s="2">
-        <v>45690.52141626112</v>
+        <v>45687.25</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -7651,22 +7633,19 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
-      <c r="M95" t="s">
-        <v>134</v>
-      </c>
       <c r="N95">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -7684,36 +7663,36 @@
         <v>0</v>
       </c>
       <c r="U95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V95" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W95" t="s">
         <v>26</v>
       </c>
       <c r="X95" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D96" s="2">
-        <v>45690.52141626112</v>
+        <v>45687.25</v>
       </c>
       <c r="E96" s="2">
-        <v>45690.52141626112</v>
+        <v>45687.25</v>
       </c>
       <c r="F96" s="2">
-        <v>45690.70891626112</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7722,22 +7701,22 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="K96" t="s">
+        <v>123</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" t="s">
         <v>130</v>
       </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96" t="s">
-        <v>141</v>
-      </c>
       <c r="N96">
-        <v>2700</v>
+        <v>3150</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -7755,36 +7734,36 @@
         <v>0</v>
       </c>
       <c r="U96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W96" t="s">
         <v>26</v>
       </c>
       <c r="X96" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D97" s="2">
-        <v>45690.70891626112</v>
+        <v>45687.25</v>
       </c>
       <c r="E97" s="2">
-        <v>45690.70891626112</v>
+        <v>45687.25</v>
       </c>
       <c r="F97" s="2">
-        <v>45690.86516626112</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7793,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
+        <v>124</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
         <v>130</v>
       </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97" t="s">
-        <v>140</v>
-      </c>
       <c r="N97">
-        <v>2250</v>
+        <v>3150</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -7826,60 +7805,60 @@
         <v>0</v>
       </c>
       <c r="U97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W97" t="s">
         <v>26</v>
       </c>
       <c r="X97" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D98" s="2">
-        <v>45690.86516626112</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="E98" s="2">
-        <v>45690.86516626112</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="F98" s="2">
-        <v>45691.01099959446</v>
+        <v>45691.22974959446</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I98">
-        <v>3.5</v>
+        <v>13.31520261082404</v>
       </c>
       <c r="J98">
-        <v>600</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K98" t="s">
+        <v>123</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="s">
         <v>130</v>
       </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98" t="s">
-        <v>137</v>
-      </c>
       <c r="N98">
-        <v>2100</v>
+        <v>3150</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -7897,57 +7876,60 @@
         <v>0</v>
       </c>
       <c r="U98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V98" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W98" t="s">
         <v>26</v>
       </c>
       <c r="X98" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D99" s="2">
-        <v>45687.25</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="E99" s="2">
-        <v>45687.25</v>
+        <v>45687.26388888889</v>
       </c>
       <c r="F99" s="2">
-        <v>45687.25</v>
+        <v>45687.28428595171</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.4895295077508839</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K99" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L99">
         <v>1</v>
       </c>
+      <c r="M99" t="s">
+        <v>130</v>
+      </c>
       <c r="N99">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -7968,54 +7950,54 @@
         <v>28</v>
       </c>
       <c r="V99" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W99" t="s">
         <v>26</v>
       </c>
       <c r="X99" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D100" s="2">
-        <v>45687.25</v>
+        <v>45687.28428595171</v>
       </c>
       <c r="E100" s="2">
-        <v>45687.25</v>
+        <v>45687.28428595171</v>
       </c>
       <c r="F100" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.29244477684</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J100">
-        <v>12</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K100" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N100">
         <v>3150</v>
@@ -8036,57 +8018,57 @@
         <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="V100" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W100" t="s">
         <v>26</v>
       </c>
       <c r="X100" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D101" s="2">
-        <v>45687.25</v>
+        <v>45687.29244477684</v>
       </c>
       <c r="E101" s="2">
-        <v>45687.25</v>
+        <v>45687.29244477684</v>
       </c>
       <c r="F101" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.30060360197</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K101" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L101">
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N101">
         <v>3150</v>
@@ -8107,57 +8089,57 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="V101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W101" t="s">
         <v>26</v>
       </c>
       <c r="X101" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D102" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.30060360197</v>
       </c>
       <c r="E102" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.30060360197</v>
       </c>
       <c r="F102" s="2">
-        <v>45691.22974959446</v>
+        <v>45687.30468301454</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>13.31520261082404</v>
+        <v>0.09790590155017678</v>
       </c>
       <c r="J102">
         <v>10.21388888888889</v>
       </c>
       <c r="K102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L102">
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N102">
         <v>3150</v>
@@ -8178,16 +8160,16 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="V102" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W102" t="s">
         <v>26</v>
       </c>
       <c r="X102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -8198,37 +8180,37 @@
         <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D103" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.30468301454</v>
       </c>
       <c r="E103" s="2">
-        <v>45687.26388888889</v>
+        <v>45687.30468301454</v>
       </c>
       <c r="F103" s="2">
-        <v>45687.28428595171</v>
+        <v>45687.32100066479</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0.4895295077508839</v>
+        <v>0.3916236062007071</v>
       </c>
       <c r="J103">
         <v>10.21388888888889</v>
       </c>
       <c r="K103" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L103">
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N103">
         <v>3150</v>
@@ -8249,16 +8231,16 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="V103" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W103" t="s">
         <v>26</v>
       </c>
       <c r="X103" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -8269,16 +8251,16 @@
         <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D104" s="2">
-        <v>45687.28428595171</v>
+        <v>45687.32100066479</v>
       </c>
       <c r="E104" s="2">
-        <v>45687.28428595171</v>
+        <v>45687.32100066479</v>
       </c>
       <c r="F104" s="2">
-        <v>45687.29244477684</v>
+        <v>45687.32915948992</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -8293,13 +8275,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K104" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L104">
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N104">
         <v>3150</v>
@@ -8320,16 +8302,16 @@
         <v>0</v>
       </c>
       <c r="U104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V104" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W104" t="s">
         <v>26</v>
       </c>
       <c r="X104" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -8340,37 +8322,37 @@
         <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D105" s="2">
-        <v>45687.29244477684</v>
+        <v>45687.32915948992</v>
       </c>
       <c r="E105" s="2">
-        <v>45687.29244477684</v>
+        <v>45687.32915948992</v>
       </c>
       <c r="F105" s="2">
-        <v>45687.30060360197</v>
+        <v>45687.34139772761</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0.1958118031003536</v>
+        <v>0.2937177046505303</v>
       </c>
       <c r="J105">
         <v>10.21388888888889</v>
       </c>
       <c r="K105" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L105">
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N105">
         <v>3150</v>
@@ -8391,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V105" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W105" t="s">
         <v>26</v>
       </c>
       <c r="X105" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -8411,37 +8393,37 @@
         <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D106" s="2">
-        <v>45687.30060360197</v>
+        <v>45687.34139772761</v>
       </c>
       <c r="E106" s="2">
-        <v>45687.30060360197</v>
+        <v>45687.34139772761</v>
       </c>
       <c r="F106" s="2">
-        <v>45687.30468301454</v>
+        <v>45687.35771537787</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>0.09790590155017678</v>
+        <v>0.3916236062007071</v>
       </c>
       <c r="J106">
         <v>10.21388888888889</v>
       </c>
       <c r="K106" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N106">
         <v>3150</v>
@@ -8462,16 +8444,16 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V106" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W106" t="s">
         <v>26</v>
       </c>
       <c r="X106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -8482,37 +8464,37 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D107" s="2">
-        <v>45687.30468301454</v>
+        <v>45687.35771537787</v>
       </c>
       <c r="E107" s="2">
-        <v>45687.30468301454</v>
+        <v>45687.35771537787</v>
       </c>
       <c r="F107" s="2">
-        <v>45687.32100066479</v>
+        <v>45687.40258891608</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I107">
-        <v>0.3916236062007071</v>
+        <v>1.076964917051945</v>
       </c>
       <c r="J107">
         <v>10.21388888888889</v>
       </c>
       <c r="K107" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N107">
         <v>3150</v>
@@ -8533,16 +8515,16 @@
         <v>0</v>
       </c>
       <c r="U107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V107" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W107" t="s">
         <v>26</v>
       </c>
       <c r="X107" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -8553,37 +8535,37 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D108" s="2">
-        <v>45687.32100066479</v>
+        <v>45687.40258891608</v>
       </c>
       <c r="E108" s="2">
-        <v>45687.32100066479</v>
+        <v>45687.40258891608</v>
       </c>
       <c r="F108" s="2">
-        <v>45687.32915948992</v>
+        <v>45687.40666832864</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0.1958118031003536</v>
+        <v>0.09790590155017678</v>
       </c>
       <c r="J108">
         <v>10.21388888888889</v>
       </c>
       <c r="K108" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L108">
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N108">
         <v>3150</v>
@@ -8604,16 +8586,16 @@
         <v>0</v>
       </c>
       <c r="U108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V108" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W108" t="s">
         <v>26</v>
       </c>
       <c r="X108" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -8624,37 +8606,37 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D109" s="2">
-        <v>45687.32915948992</v>
+        <v>45687.40666832864</v>
       </c>
       <c r="E109" s="2">
-        <v>45687.32915948992</v>
+        <v>45687.40666832864</v>
       </c>
       <c r="F109" s="2">
-        <v>45687.34139772761</v>
+        <v>45687.4923359925</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I109">
-        <v>0.2937177046505303</v>
+        <v>2.056023932553712</v>
       </c>
       <c r="J109">
         <v>10.21388888888889</v>
       </c>
       <c r="K109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L109">
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N109">
         <v>3150</v>
@@ -8675,16 +8657,16 @@
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V109" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W109" t="s">
         <v>26</v>
       </c>
       <c r="X109" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -8695,37 +8677,37 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D110" s="2">
-        <v>45687.34139772761</v>
+        <v>45687.4923359925</v>
       </c>
       <c r="E110" s="2">
-        <v>45687.34139772761</v>
+        <v>45687.4923359925</v>
       </c>
       <c r="F110" s="2">
-        <v>45687.35771537787</v>
+        <v>45687.50049481763</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>0.3916236062007071</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J110">
         <v>10.21388888888889</v>
       </c>
       <c r="K110" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L110">
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N110">
         <v>3150</v>
@@ -8746,16 +8728,16 @@
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V110" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W110" t="s">
         <v>26</v>
       </c>
       <c r="X110" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -8766,37 +8748,37 @@
         <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D111" s="2">
-        <v>45687.35771537787</v>
+        <v>45687.50049481763</v>
       </c>
       <c r="E111" s="2">
-        <v>45687.35771537787</v>
+        <v>45687.85830462634</v>
       </c>
       <c r="F111" s="2">
-        <v>45687.40258891608</v>
+        <v>45687.88278110173</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>8.587435409166666</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I111">
-        <v>1.076964917051945</v>
+        <v>0.5874354093010606</v>
       </c>
       <c r="J111">
         <v>10.21388888888889</v>
       </c>
       <c r="K111" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L111">
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N111">
         <v>3150</v>
@@ -8817,16 +8799,16 @@
         <v>0</v>
       </c>
       <c r="U111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V111" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W111" t="s">
         <v>26</v>
       </c>
       <c r="X111" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -8837,37 +8819,37 @@
         <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D112" s="2">
-        <v>45687.40258891608</v>
+        <v>45687.88278110173</v>
       </c>
       <c r="E112" s="2">
-        <v>45687.40258891608</v>
+        <v>45687.88278110173</v>
       </c>
       <c r="F112" s="2">
-        <v>45687.40666832864</v>
+        <v>45687.92765463993</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I112">
-        <v>0.09790590155017678</v>
+        <v>1.076964917051945</v>
       </c>
       <c r="J112">
         <v>10.21388888888889</v>
       </c>
       <c r="K112" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L112">
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N112">
         <v>3150</v>
@@ -8888,16 +8870,16 @@
         <v>0</v>
       </c>
       <c r="U112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V112" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W112" t="s">
         <v>26</v>
       </c>
       <c r="X112" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -8908,37 +8890,37 @@
         <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D113" s="2">
-        <v>45687.40666832864</v>
+        <v>45687.92765463993</v>
       </c>
       <c r="E113" s="2">
-        <v>45687.40666832864</v>
+        <v>45687.92765463993</v>
       </c>
       <c r="F113" s="2">
-        <v>45687.4923359925</v>
+        <v>45687.93989287763</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2.056023932553712</v>
+        <v>0.2937177046505303</v>
       </c>
       <c r="J113">
         <v>10.21388888888889</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L113">
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N113">
         <v>3150</v>
@@ -8959,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="U113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V113" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W113" t="s">
         <v>26</v>
       </c>
       <c r="X113" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -8979,37 +8961,37 @@
         <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D114" s="2">
-        <v>45687.4923359925</v>
+        <v>45687.93989287763</v>
       </c>
       <c r="E114" s="2">
-        <v>45687.4923359925</v>
+        <v>45687.93989287763</v>
       </c>
       <c r="F114" s="2">
-        <v>45687.50049481763</v>
+        <v>45687.95213111532</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0.1958118031003536</v>
+        <v>0.2937177046505303</v>
       </c>
       <c r="J114">
         <v>10.21388888888889</v>
       </c>
       <c r="K114" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L114">
         <v>1</v>
       </c>
       <c r="M114" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N114">
         <v>3150</v>
@@ -9030,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V114" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W114" t="s">
         <v>26</v>
       </c>
       <c r="X114" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -9050,37 +9032,37 @@
         <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="D115" s="2">
-        <v>45687.50049481763</v>
+        <v>45687.95213111532</v>
       </c>
       <c r="E115" s="2">
-        <v>45687.85830462634</v>
+        <v>45687.95213111532</v>
       </c>
       <c r="F115" s="2">
-        <v>45687.85830462634</v>
+        <v>45688.00924289122</v>
       </c>
       <c r="G115">
-        <v>8.587435409166666</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1.370682621702475</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K115" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="M115" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N115">
         <v>3150</v>
@@ -9101,16 +9083,16 @@
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V115" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W115" t="s">
         <v>26</v>
       </c>
       <c r="X115" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -9121,37 +9103,37 @@
         <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D116" s="2">
-        <v>45687.85830462634</v>
+        <v>45688.00924289122</v>
       </c>
       <c r="E116" s="2">
-        <v>45687.85830462634</v>
+        <v>45688.00924289122</v>
       </c>
       <c r="F116" s="2">
-        <v>45687.88278110173</v>
+        <v>45688.01740171635</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0.5874354093010606</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>10.21388888888889</v>
       </c>
       <c r="K116" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N116">
         <v>3150</v>
@@ -9172,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="U116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V116" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W116" t="s">
         <v>26</v>
       </c>
       <c r="X116" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -9192,37 +9174,37 @@
         <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D117" s="2">
-        <v>45687.88278110173</v>
+        <v>45688.01740171635</v>
       </c>
       <c r="E117" s="2">
-        <v>45687.88278110173</v>
+        <v>45688.01740171635</v>
       </c>
       <c r="F117" s="2">
-        <v>45687.92765463993</v>
+        <v>45688.02556054148</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>1.076964917051945</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J117">
         <v>10.21388888888889</v>
       </c>
       <c r="K117" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L117">
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N117">
         <v>3150</v>
@@ -9243,16 +9225,16 @@
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V117" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W117" t="s">
         <v>26</v>
       </c>
       <c r="X117" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -9263,37 +9245,37 @@
         <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D118" s="2">
-        <v>45687.92765463993</v>
+        <v>45688.02556054148</v>
       </c>
       <c r="E118" s="2">
-        <v>45687.92765463993</v>
+        <v>45688.02556054148</v>
       </c>
       <c r="F118" s="2">
-        <v>45687.93989287763</v>
+        <v>45688.03371936661</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0.2937177046505303</v>
+        <v>0.1958118031003536</v>
       </c>
       <c r="J118">
         <v>10.21388888888889</v>
       </c>
       <c r="K118" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N118">
         <v>3150</v>
@@ -9314,16 +9296,16 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V118" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W118" t="s">
         <v>26</v>
       </c>
       <c r="X118" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9334,37 +9316,37 @@
         <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D119" s="2">
-        <v>45687.93989287763</v>
+        <v>45688.03371936661</v>
       </c>
       <c r="E119" s="2">
-        <v>45687.93989287763</v>
+        <v>45688.03371936661</v>
       </c>
       <c r="F119" s="2">
-        <v>45687.95213111532</v>
+        <v>45688.06227525456</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I119">
-        <v>0.2937177046505303</v>
+        <v>0.6853413108512374</v>
       </c>
       <c r="J119">
         <v>10.21388888888889</v>
       </c>
       <c r="K119" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L119">
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N119">
         <v>3150</v>
@@ -9385,16 +9367,16 @@
         <v>0</v>
       </c>
       <c r="U119" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V119" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W119" t="s">
         <v>26</v>
       </c>
       <c r="X119" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9405,37 +9387,37 @@
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D120" s="2">
-        <v>45687.95213111532</v>
+        <v>45688.06227525456</v>
       </c>
       <c r="E120" s="2">
-        <v>45687.95213111532</v>
+        <v>45688.06227525456</v>
       </c>
       <c r="F120" s="2">
-        <v>45688.00924289122</v>
+        <v>45688.10306938021</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I120">
-        <v>1.370682621702475</v>
+        <v>0.9790590155017678</v>
       </c>
       <c r="J120">
         <v>10.21388888888889</v>
       </c>
       <c r="K120" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L120">
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N120">
         <v>3150</v>
@@ -9456,16 +9438,16 @@
         <v>0</v>
       </c>
       <c r="U120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V120" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W120" t="s">
         <v>26</v>
       </c>
       <c r="X120" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -9476,16 +9458,16 @@
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D121" s="2">
-        <v>45688.00924289122</v>
+        <v>45688.10306938021</v>
       </c>
       <c r="E121" s="2">
-        <v>45688.00924289122</v>
+        <v>45688.10306938021</v>
       </c>
       <c r="F121" s="2">
-        <v>45688.01740171635</v>
+        <v>45688.11122820534</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -9500,13 +9482,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K121" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L121">
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N121">
         <v>3150</v>
@@ -9527,16 +9509,16 @@
         <v>0</v>
       </c>
       <c r="U121" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V121" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W121" t="s">
         <v>26</v>
       </c>
       <c r="X121" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -9547,37 +9529,37 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D122" s="2">
-        <v>45688.01740171635</v>
+        <v>45688.11122820534</v>
       </c>
       <c r="E122" s="2">
-        <v>45688.01740171635</v>
+        <v>45688.11122820534</v>
       </c>
       <c r="F122" s="2">
-        <v>45688.02556054148</v>
+        <v>45688.12346644303</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0.1958118031003536</v>
+        <v>0.2937177046505303</v>
       </c>
       <c r="J122">
         <v>10.21388888888889</v>
       </c>
       <c r="K122" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L122">
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N122">
         <v>3150</v>
@@ -9598,16 +9580,16 @@
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V122" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W122" t="s">
         <v>26</v>
       </c>
       <c r="X122" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -9618,16 +9600,16 @@
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D123" s="2">
-        <v>45688.02556054148</v>
+        <v>45688.12346644303</v>
       </c>
       <c r="E123" s="2">
-        <v>45688.02556054148</v>
+        <v>45688.12346644303</v>
       </c>
       <c r="F123" s="2">
-        <v>45688.03371936661</v>
+        <v>45688.13162526816</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -9642,13 +9624,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K123" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N123">
         <v>3150</v>
@@ -9669,16 +9651,16 @@
         <v>0</v>
       </c>
       <c r="U123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V123" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W123" t="s">
         <v>26</v>
       </c>
       <c r="X123" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -9689,37 +9671,37 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D124" s="2">
-        <v>45688.03371936661</v>
+        <v>45688.13162526816</v>
       </c>
       <c r="E124" s="2">
-        <v>45688.03371936661</v>
+        <v>45688.13162526816</v>
       </c>
       <c r="F124" s="2">
-        <v>45688.06227525456</v>
+        <v>45688.13570468073</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0.6853413108512374</v>
+        <v>0.09790590155017678</v>
       </c>
       <c r="J124">
         <v>10.21388888888889</v>
       </c>
       <c r="K124" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L124">
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N124">
         <v>3150</v>
@@ -9740,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="U124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V124" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W124" t="s">
         <v>26</v>
       </c>
       <c r="X124" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -9760,37 +9742,37 @@
         <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D125" s="2">
-        <v>45688.06227525456</v>
+        <v>45688.13570468073</v>
       </c>
       <c r="E125" s="2">
-        <v>45688.06227525456</v>
+        <v>45688.13570468073</v>
       </c>
       <c r="F125" s="2">
-        <v>45688.10306938021</v>
+        <v>45688.1397840933</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0.9790590155017678</v>
+        <v>0.09790590155017678</v>
       </c>
       <c r="J125">
         <v>10.21388888888889</v>
       </c>
       <c r="K125" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L125">
         <v>1</v>
       </c>
       <c r="M125" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N125">
         <v>3150</v>
@@ -9811,16 +9793,16 @@
         <v>0</v>
       </c>
       <c r="U125" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V125" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W125" t="s">
         <v>26</v>
       </c>
       <c r="X125" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -9831,16 +9813,16 @@
         <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D126" s="2">
-        <v>45688.10306938021</v>
+        <v>45688.1397840933</v>
       </c>
       <c r="E126" s="2">
-        <v>45688.10306938021</v>
+        <v>45688.1397840933</v>
       </c>
       <c r="F126" s="2">
-        <v>45688.11122820534</v>
+        <v>45688.14794291843</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -9855,13 +9837,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K126" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L126">
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N126">
         <v>3150</v>
@@ -9882,16 +9864,16 @@
         <v>0</v>
       </c>
       <c r="U126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V126" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W126" t="s">
         <v>26</v>
       </c>
       <c r="X126" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -9902,37 +9884,37 @@
         <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D127" s="2">
-        <v>45688.11122820534</v>
+        <v>45688.14794291843</v>
       </c>
       <c r="E127" s="2">
-        <v>45688.11122820534</v>
+        <v>45688.14794291843</v>
       </c>
       <c r="F127" s="2">
-        <v>45688.12346644303</v>
+        <v>45688.15202233099</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0.2937177046505303</v>
+        <v>0.09790590155017678</v>
       </c>
       <c r="J127">
         <v>10.21388888888889</v>
       </c>
       <c r="K127" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L127">
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N127">
         <v>3150</v>
@@ -9953,16 +9935,16 @@
         <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V127" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W127" t="s">
         <v>26</v>
       </c>
       <c r="X127" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -9973,16 +9955,16 @@
         <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D128" s="2">
-        <v>45688.12346644303</v>
+        <v>45688.15202233099</v>
       </c>
       <c r="E128" s="2">
-        <v>45688.12346644303</v>
+        <v>45688.15202233099</v>
       </c>
       <c r="F128" s="2">
-        <v>45688.13162526816</v>
+        <v>45688.16018115612</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -9997,13 +9979,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K128" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N128">
         <v>3150</v>
@@ -10024,16 +10006,16 @@
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V128" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W128" t="s">
         <v>26</v>
       </c>
       <c r="X128" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -10044,16 +10026,16 @@
         <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D129" s="2">
-        <v>45688.13162526816</v>
+        <v>45688.16018115612</v>
       </c>
       <c r="E129" s="2">
-        <v>45688.13162526816</v>
+        <v>45688.16018115612</v>
       </c>
       <c r="F129" s="2">
-        <v>45688.13570468073</v>
+        <v>45688.16426056869</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -10068,13 +10050,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K129" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N129">
         <v>3150</v>
@@ -10095,16 +10077,16 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V129" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W129" t="s">
         <v>26</v>
       </c>
       <c r="X129" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10115,16 +10097,16 @@
         <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D130" s="2">
-        <v>45688.13570468073</v>
+        <v>45688.16426056869</v>
       </c>
       <c r="E130" s="2">
-        <v>45688.13570468073</v>
+        <v>45688.16426056869</v>
       </c>
       <c r="F130" s="2">
-        <v>45688.1397840933</v>
+        <v>45688.16833998126</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -10139,13 +10121,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K130" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L130">
         <v>1</v>
       </c>
       <c r="M130" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N130">
         <v>3150</v>
@@ -10166,16 +10148,16 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V130" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W130" t="s">
         <v>26</v>
       </c>
       <c r="X130" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -10186,16 +10168,16 @@
         <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D131" s="2">
-        <v>45688.1397840933</v>
+        <v>45688.16833998126</v>
       </c>
       <c r="E131" s="2">
-        <v>45688.1397840933</v>
+        <v>45688.16833998126</v>
       </c>
       <c r="F131" s="2">
-        <v>45688.14794291843</v>
+        <v>45688.17649880639</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -10210,13 +10192,13 @@
         <v>10.21388888888889</v>
       </c>
       <c r="K131" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L131">
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N131">
         <v>3150</v>
@@ -10237,57 +10219,57 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V131" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W131" t="s">
         <v>26</v>
       </c>
       <c r="X131" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D132" s="2">
-        <v>45688.14794291843</v>
+        <v>45691.01099959446</v>
       </c>
       <c r="E132" s="2">
-        <v>45688.14794291843</v>
+        <v>45691.01099959446</v>
       </c>
       <c r="F132" s="2">
-        <v>45688.15202233099</v>
+        <v>45691.22974959446</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0.09790590155017678</v>
+        <v>5.25</v>
       </c>
       <c r="J132">
-        <v>10.21388888888889</v>
+        <v>600</v>
       </c>
       <c r="K132" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L132">
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="N132">
         <v>3150</v>
@@ -10308,371 +10290,16 @@
         <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="V132" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W132" t="s">
         <v>26</v>
       </c>
       <c r="X132" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
-      <c r="A133" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45688.15202233099</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45688.15202233099</v>
-      </c>
-      <c r="F133" s="2">
-        <v>45688.16018115612</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>2</v>
-      </c>
-      <c r="I133">
-        <v>0.1958118031003536</v>
-      </c>
-      <c r="J133">
-        <v>10.21388888888889</v>
-      </c>
-      <c r="K133" t="s">
-        <v>129</v>
-      </c>
-      <c r="L133">
-        <v>1</v>
-      </c>
-      <c r="M133" t="s">
-        <v>136</v>
-      </c>
-      <c r="N133">
-        <v>3150</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="S133">
-        <v>0</v>
-      </c>
-      <c r="U133" t="s">
-        <v>184</v>
-      </c>
-      <c r="V133" t="s">
-        <v>191</v>
-      </c>
-      <c r="W133" t="s">
-        <v>26</v>
-      </c>
-      <c r="X133" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
-      <c r="A134" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" t="s">
-        <v>118</v>
-      </c>
-      <c r="D134" s="2">
-        <v>45688.16018115612</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45688.16018115612</v>
-      </c>
-      <c r="F134" s="2">
-        <v>45688.16426056869</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0.09790590155017678</v>
-      </c>
-      <c r="J134">
-        <v>10.21388888888889</v>
-      </c>
-      <c r="K134" t="s">
-        <v>129</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134" t="s">
-        <v>136</v>
-      </c>
-      <c r="N134">
-        <v>3150</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-      <c r="S134">
-        <v>0</v>
-      </c>
-      <c r="U134" t="s">
-        <v>185</v>
-      </c>
-      <c r="V134" t="s">
-        <v>191</v>
-      </c>
-      <c r="W134" t="s">
-        <v>26</v>
-      </c>
-      <c r="X134" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
-      <c r="A135" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C135" t="s">
-        <v>119</v>
-      </c>
-      <c r="D135" s="2">
-        <v>45688.16426056869</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45688.16426056869</v>
-      </c>
-      <c r="F135" s="2">
-        <v>45688.16833998126</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>0.09790590155017678</v>
-      </c>
-      <c r="J135">
-        <v>10.21388888888889</v>
-      </c>
-      <c r="K135" t="s">
-        <v>129</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135" t="s">
-        <v>136</v>
-      </c>
-      <c r="N135">
-        <v>3150</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="U135" t="s">
-        <v>186</v>
-      </c>
-      <c r="V135" t="s">
-        <v>191</v>
-      </c>
-      <c r="W135" t="s">
-        <v>26</v>
-      </c>
-      <c r="X135" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
-      <c r="A136" t="s">
-        <v>27</v>
-      </c>
-      <c r="B136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45688.16833998126</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45688.16833998126</v>
-      </c>
-      <c r="F136" s="2">
-        <v>45688.17649880639</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
-      <c r="I136">
-        <v>0.1958118031003536</v>
-      </c>
-      <c r="J136">
-        <v>10.21388888888889</v>
-      </c>
-      <c r="K136" t="s">
-        <v>129</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136" t="s">
-        <v>136</v>
-      </c>
-      <c r="N136">
-        <v>3150</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
-        <v>0</v>
-      </c>
-      <c r="U136" t="s">
         <v>187</v>
-      </c>
-      <c r="V136" t="s">
-        <v>191</v>
-      </c>
-      <c r="W136" t="s">
-        <v>26</v>
-      </c>
-      <c r="X136" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
-      <c r="A137" t="s">
-        <v>26</v>
-      </c>
-      <c r="B137" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" t="s">
-        <v>127</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45691.01099959446</v>
-      </c>
-      <c r="E137" s="2">
-        <v>45691.01099959446</v>
-      </c>
-      <c r="F137" s="2">
-        <v>45691.22974959446</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>5.25</v>
-      </c>
-      <c r="J137">
-        <v>600</v>
-      </c>
-      <c r="K137" t="s">
-        <v>130</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137" t="s">
-        <v>136</v>
-      </c>
-      <c r="N137">
-        <v>3150</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>0</v>
-      </c>
-      <c r="S137">
-        <v>0</v>
-      </c>
-      <c r="U137" t="s">
-        <v>29</v>
-      </c>
-      <c r="V137" t="s">
-        <v>191</v>
-      </c>
-      <c r="W137" t="s">
-        <v>26</v>
-      </c>
-      <c r="X137" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
